--- a/data/estudiantes/base_students.xlsx
+++ b/data/estudiantes/base_students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\GitHub\1ECO35_2023_1\data\estudiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D158177-BA84-4573-AE16-DBE2CA7E308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B18DFF2-CF21-4145-8859-CE1C3197A51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{B77D91EB-AD39-4E50-887D-6C21FE367125}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="223">
   <si>
     <t>AGE</t>
   </si>
@@ -690,6 +690,21 @@
   </si>
   <si>
     <t>edad correta es 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01-156597898</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> padre: 01-156597865</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01-156597872</t>
+  </si>
+  <si>
+    <t>01-156597898</t>
+  </si>
+  <si>
+    <t>01-156597872</t>
   </si>
 </sst>
 </file>
@@ -1062,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F04E58-CC26-4B50-B4B4-A180B8ED76EB}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1186,7 @@
         <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
         <v>217</v>
@@ -1220,7 +1235,7 @@
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1390,7 +1405,7 @@
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,7 +1500,7 @@
         <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="H17" t="s">
         <v>206</v>
@@ -1724,7 +1739,7 @@
         <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2061,7 +2076,7 @@
         <v>151</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H41" t="s">
         <v>194</v>
@@ -2249,7 +2264,7 @@
         <v>152</v>
       </c>
       <c r="G49" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="H49" t="s">
         <v>215</v>
